--- a/Ohio_projects_collected.xlsx
+++ b/Ohio_projects_collected.xlsx
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -170,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -187,19 +181,16 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -218,12 +209,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -534,21 +525,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30.75">
@@ -585,7 +576,7 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -599,49 +590,49 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>39125</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2018</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>43244</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>111</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>12.982</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>99</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>0.943</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <f>0.957859</f>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>1.0475101</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
